--- a/13-01-2020-Plan-Project-Book Meeting Room-เซฟ.xlsx
+++ b/13-01-2020-Plan-Project-Book Meeting Room-เซฟ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4917B594-4379-4496-922F-5E58FE203246}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5017FFC0-040F-4119-ABFB-6EB629C123B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -902,7 +902,7 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1071,9 +1071,6 @@
     <xf numFmtId="166" fontId="19" fillId="0" borderId="8" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="15" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1162,9 +1159,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="19" fillId="0" borderId="23" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="23" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2429,8 +2423,8 @@
   </sheetPr>
   <dimension ref="A1:BO41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B16" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="R37" sqref="R37"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2482,36 +2476,36 @@
       <c r="G2" s="25"/>
       <c r="H2" s="26"/>
       <c r="I2" s="54"/>
-      <c r="L2" s="114" t="s">
+      <c r="L2" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="Q2" s="115" t="s">
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="Q2" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="115"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="115"/>
-      <c r="V2" s="116" t="s">
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
+      <c r="V2" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="116"/>
-      <c r="X2" s="116"/>
-      <c r="Y2" s="116"/>
-      <c r="AA2" s="106" t="s">
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
+      <c r="Y2" s="114"/>
+      <c r="AA2" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="106"/>
-      <c r="AC2" s="106"/>
-      <c r="AD2" s="106"/>
-      <c r="AF2" s="107" t="s">
+      <c r="AB2" s="104"/>
+      <c r="AC2" s="104"/>
+      <c r="AD2" s="104"/>
+      <c r="AF2" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="AG2" s="107"/>
-      <c r="AH2" s="107"/>
-      <c r="AI2" s="107"/>
+      <c r="AG2" s="105"/>
+      <c r="AH2" s="105"/>
+      <c r="AI2" s="105"/>
     </row>
     <row r="3" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
@@ -2521,16 +2515,16 @@
         <v>51</v>
       </c>
       <c r="C3" s="22"/>
-      <c r="D3" s="108" t="s">
+      <c r="D3" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="109"/>
-      <c r="F3" s="111">
+      <c r="E3" s="107"/>
+      <c r="F3" s="109">
         <f ca="1">IFERROR(IF(MIN(Milestones[Start Date])=0,TODAY(),MIN(Milestones[Start Date])),TODAY())</f>
         <v>43787</v>
       </c>
-      <c r="G3" s="112"/>
-      <c r="H3" s="113"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="111"/>
       <c r="I3" s="37"/>
       <c r="J3" s="36"/>
       <c r="K3" s="52"/>
@@ -2539,13 +2533,13 @@
       <c r="A4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="108" t="s">
+      <c r="D4" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="109"/>
+      <c r="E4" s="107"/>
       <c r="F4" s="12">
         <v>0</v>
       </c>
@@ -2635,15 +2629,15 @@
       <c r="A5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
       <c r="K5" s="52"/>
       <c r="L5" s="16">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
@@ -3202,27 +3196,27 @@
     </row>
     <row r="8" spans="1:67" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="64">
+      <c r="C8" s="69"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="63">
         <f>F9</f>
         <v>43787</v>
       </c>
-      <c r="G8" s="63">
+      <c r="G8" s="62">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43788</v>
       </c>
-      <c r="H8" s="73">
+      <c r="H8" s="72">
         <f>H9</f>
         <v>1</v>
       </c>
-      <c r="I8" s="74"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="76"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="75"/>
       <c r="L8" s="38" t="str">
         <f t="shared" ref="L8:U12" ca="1" si="4">IF(AND($C8="Goal",L$5&gt;=$F8,L$5&lt;=$F8+$H8-1),2,IF(AND($C8="Milestone",L$5&gt;=$F8,L$5&lt;=$F8+$H8-1),1,""))</f>
         <v/>
@@ -3449,7 +3443,7 @@
       </c>
     </row>
     <row r="9" spans="1:67" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="99" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="39" t="s">
@@ -3478,7 +3472,7 @@
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I9-Milestones[[#This Row],[End Date]])</f>
         <v>0</v>
       </c>
-      <c r="K9" s="61" t="str">
+      <c r="K9" s="60" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I9-G9&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Complete</v>
       </c>
@@ -3708,27 +3702,27 @@
       </c>
     </row>
     <row r="10" spans="1:67" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="70"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="66">
+      <c r="C10" s="69"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="65">
         <f>F11</f>
         <v>43788</v>
       </c>
-      <c r="G10" s="66">
+      <c r="G10" s="65">
         <f>G12</f>
         <v>43790</v>
       </c>
-      <c r="H10" s="73">
+      <c r="H10" s="72">
         <f>H11+H12</f>
         <v>2</v>
       </c>
-      <c r="I10" s="74"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="76"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="75"/>
       <c r="L10" s="38" t="str">
         <f t="shared" ca="1" si="4"/>
         <v/>
@@ -3984,7 +3978,7 @@
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I11-Milestones[[#This Row],[End Date]])</f>
         <v>0</v>
       </c>
-      <c r="K11" s="61" t="str">
+      <c r="K11" s="60" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I11-G11&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Complete</v>
       </c>
@@ -4242,7 +4236,7 @@
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I12-Milestones[[#This Row],[End Date]])</f>
         <v>0</v>
       </c>
-      <c r="K12" s="61" t="str">
+      <c r="K12" s="60" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I12-G12&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Complete</v>
       </c>
@@ -4472,27 +4466,27 @@
       </c>
     </row>
     <row r="13" spans="1:67" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="66">
+      <c r="C13" s="69"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="65">
         <f>F14</f>
         <v>43790</v>
       </c>
-      <c r="G13" s="66">
+      <c r="G13" s="65">
         <f>G16</f>
         <v>43793</v>
       </c>
-      <c r="H13" s="73">
+      <c r="H13" s="72">
         <f>H14+H15+H16</f>
         <v>3</v>
       </c>
-      <c r="I13" s="79"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="76"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="75"/>
       <c r="L13" s="38"/>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
@@ -4551,7 +4545,7 @@
       <c r="BO13" s="11"/>
     </row>
     <row r="14" spans="1:67" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="58" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="45" t="s">
@@ -4582,7 +4576,7 @@
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I14-Milestones[[#This Row],[End Date]])</f>
         <v>0</v>
       </c>
-      <c r="K14" s="61" t="str">
+      <c r="K14" s="60" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I14-G14&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Complete</v>
       </c>
@@ -4644,7 +4638,7 @@
       <c r="BO14" s="11"/>
     </row>
     <row r="15" spans="1:67" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="59" t="s">
         <v>43</v>
       </c>
       <c r="C15" s="45" t="s">
@@ -4675,7 +4669,7 @@
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I15-Milestones[[#This Row],[End Date]])</f>
         <v>0</v>
       </c>
-      <c r="K15" s="61" t="str">
+      <c r="K15" s="60" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I15-G15&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Complete</v>
       </c>
@@ -4737,7 +4731,7 @@
       <c r="BO15" s="11"/>
     </row>
     <row r="16" spans="1:67" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="59" t="s">
         <v>44</v>
       </c>
       <c r="C16" s="45"/>
@@ -4766,7 +4760,7 @@
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I16-Milestones[[#This Row],[End Date]])</f>
         <v>0</v>
       </c>
-      <c r="K16" s="61" t="str">
+      <c r="K16" s="60" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I16-G16&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Complete</v>
       </c>
@@ -4828,27 +4822,27 @@
       <c r="BO16" s="11"/>
     </row>
     <row r="17" spans="2:67" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="66">
+      <c r="C17" s="69"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="65">
         <f>G16</f>
         <v>43793</v>
       </c>
-      <c r="G17" s="64">
+      <c r="G17" s="63">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43805</v>
       </c>
-      <c r="H17" s="73">
+      <c r="H17" s="72">
         <f>H18+H19+H20+H21+H22+H23+H24+H25+H26+H27+H28+H29</f>
         <v>12</v>
       </c>
-      <c r="I17" s="79"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="76"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="75"/>
       <c r="L17" s="38" t="str">
         <f t="shared" ref="L17:AQ17" ca="1" si="10">IF(AND($C17="Goal",L$5&gt;=$F17,L$5&lt;=$F17+$H17-1),2,IF(AND($C17="Milestone",L$5&gt;=$F17,L$5&lt;=$F17+$H17-1),1,""))</f>
         <v/>
@@ -5075,7 +5069,7 @@
       </c>
     </row>
     <row r="18" spans="2:67" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="58" t="s">
         <v>53</v>
       </c>
       <c r="C18" s="45" t="s">
@@ -5106,7 +5100,7 @@
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I18-Milestones[[#This Row],[End Date]])</f>
         <v>0</v>
       </c>
-      <c r="K18" s="61" t="str">
+      <c r="K18" s="60" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I18-G18&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Complete</v>
       </c>
@@ -5168,7 +5162,7 @@
       <c r="BO18" s="11"/>
     </row>
     <row r="19" spans="2:67" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="59" t="s">
         <v>54</v>
       </c>
       <c r="C19" s="45"/>
@@ -5197,7 +5191,7 @@
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I19-Milestones[[#This Row],[End Date]])</f>
         <v>0</v>
       </c>
-      <c r="K19" s="61" t="str">
+      <c r="K19" s="60" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I19-G19&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Complete</v>
       </c>
@@ -5259,7 +5253,7 @@
       <c r="BO19" s="11"/>
     </row>
     <row r="20" spans="2:67" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="59" t="s">
         <v>56</v>
       </c>
       <c r="C20" s="49"/>
@@ -5269,7 +5263,7 @@
       <c r="E20" s="44">
         <v>1</v>
       </c>
-      <c r="F20" s="94">
+      <c r="F20" s="92">
         <f t="shared" si="12"/>
         <v>43795</v>
       </c>
@@ -5277,7 +5271,7 @@
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43796</v>
       </c>
-      <c r="H20" s="95">
+      <c r="H20" s="93">
         <v>1</v>
       </c>
       <c r="I20" s="40">
@@ -5288,7 +5282,7 @@
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I20-Milestones[[#This Row],[End Date]])</f>
         <v>0</v>
       </c>
-      <c r="K20" s="61" t="str">
+      <c r="K20" s="60" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I20-G20&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Complete</v>
       </c>
@@ -5350,17 +5344,17 @@
       <c r="BO20" s="11"/>
     </row>
     <row r="21" spans="2:67" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B21" s="90" t="s">
+      <c r="B21" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="98"/>
+      <c r="C21" s="96"/>
       <c r="D21" s="49" t="s">
         <v>49</v>
       </c>
       <c r="E21" s="44">
         <v>1</v>
       </c>
-      <c r="F21" s="94">
+      <c r="F21" s="92">
         <f t="shared" si="12"/>
         <v>43796</v>
       </c>
@@ -5368,18 +5362,18 @@
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43797</v>
       </c>
-      <c r="H21" s="99">
+      <c r="H21" s="97">
         <v>1</v>
       </c>
       <c r="I21" s="40">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43797</v>
       </c>
-      <c r="J21" s="100">
+      <c r="J21" s="98">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I21-Milestones[[#This Row],[End Date]])</f>
         <v>0</v>
       </c>
-      <c r="K21" s="61" t="str">
+      <c r="K21" s="60" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I21-G21&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Complete</v>
       </c>
@@ -5441,35 +5435,35 @@
       <c r="BO21" s="11"/>
     </row>
     <row r="22" spans="2:67" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="102"/>
+      <c r="C22" s="100"/>
       <c r="D22" s="49" t="s">
         <v>49</v>
       </c>
       <c r="E22" s="44">
         <v>1</v>
       </c>
-      <c r="F22" s="94">
+      <c r="F22" s="92">
         <f t="shared" si="12"/>
         <v>43797</v>
       </c>
-      <c r="G22" s="103">
+      <c r="G22" s="101">
         <v>43798</v>
       </c>
-      <c r="H22" s="104">
+      <c r="H22" s="102">
         <v>1</v>
       </c>
       <c r="I22" s="40">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43798</v>
       </c>
-      <c r="J22" s="105">
+      <c r="J22" s="103">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I22-Milestones[[#This Row],[End Date]])</f>
         <v>0</v>
       </c>
-      <c r="K22" s="61" t="str">
+      <c r="K22" s="60" t="str">
         <f ca="1">IF(Today=Milestones[[#This Row],[Start Date]],"On Process",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process","Complete")))</f>
         <v>Complete</v>
       </c>
@@ -5531,35 +5525,35 @@
       <c r="BO22" s="11"/>
     </row>
     <row r="23" spans="2:67" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="102"/>
+      <c r="C23" s="100"/>
       <c r="D23" s="49" t="s">
         <v>49</v>
       </c>
       <c r="E23" s="44">
         <v>1</v>
       </c>
-      <c r="F23" s="94">
+      <c r="F23" s="92">
         <f t="shared" si="12"/>
         <v>43798</v>
       </c>
-      <c r="G23" s="103">
+      <c r="G23" s="101">
         <v>43799</v>
       </c>
-      <c r="H23" s="104">
+      <c r="H23" s="102">
         <v>1</v>
       </c>
       <c r="I23" s="40">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43799</v>
       </c>
-      <c r="J23" s="105">
+      <c r="J23" s="103">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I23-Milestones[[#This Row],[End Date]])</f>
         <v>0</v>
       </c>
-      <c r="K23" s="61" t="str">
+      <c r="K23" s="60" t="str">
         <f ca="1">IF(Today=Milestones[[#This Row],[Start Date]],"On Process",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process","Complete")))</f>
         <v>Complete</v>
       </c>
@@ -5621,35 +5615,35 @@
       <c r="BO23" s="11"/>
     </row>
     <row r="24" spans="2:67" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="102"/>
+      <c r="C24" s="100"/>
       <c r="D24" s="49" t="s">
         <v>49</v>
       </c>
       <c r="E24" s="44">
         <v>1</v>
       </c>
-      <c r="F24" s="94">
+      <c r="F24" s="92">
         <f t="shared" si="12"/>
         <v>43799</v>
       </c>
-      <c r="G24" s="103">
+      <c r="G24" s="101">
         <v>43800</v>
       </c>
-      <c r="H24" s="104">
+      <c r="H24" s="102">
         <v>1</v>
       </c>
       <c r="I24" s="40">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43800</v>
       </c>
-      <c r="J24" s="105">
+      <c r="J24" s="103">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I24-Milestones[[#This Row],[End Date]])</f>
         <v>0</v>
       </c>
-      <c r="K24" s="61" t="str">
+      <c r="K24" s="60" t="str">
         <f ca="1">IF(Today=Milestones[[#This Row],[Start Date]],"On Process",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process","Complete")))</f>
         <v>Complete</v>
       </c>
@@ -5711,17 +5705,17 @@
       <c r="BO24" s="11"/>
     </row>
     <row r="25" spans="2:67" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B25" s="90" t="s">
+      <c r="B25" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="102"/>
+      <c r="C25" s="100"/>
       <c r="D25" s="49" t="s">
         <v>49</v>
       </c>
       <c r="E25" s="44">
         <v>1</v>
       </c>
-      <c r="F25" s="94">
+      <c r="F25" s="92">
         <f t="shared" si="12"/>
         <v>43800</v>
       </c>
@@ -5729,18 +5723,18 @@
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43801</v>
       </c>
-      <c r="H25" s="104">
+      <c r="H25" s="102">
         <v>1</v>
       </c>
       <c r="I25" s="40">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43801</v>
       </c>
-      <c r="J25" s="105">
+      <c r="J25" s="103">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I25-Milestones[[#This Row],[End Date]])</f>
         <v>0</v>
       </c>
-      <c r="K25" s="61" t="str">
+      <c r="K25" s="60" t="str">
         <f ca="1">IF(Today=Milestones[[#This Row],[Start Date]],"On Process",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process","Complete")))</f>
         <v>Complete</v>
       </c>
@@ -5802,35 +5796,35 @@
       <c r="BO25" s="11"/>
     </row>
     <row r="26" spans="2:67" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="102"/>
+      <c r="C26" s="100"/>
       <c r="D26" s="49" t="s">
         <v>49</v>
       </c>
       <c r="E26" s="44">
         <v>1</v>
       </c>
-      <c r="F26" s="94">
+      <c r="F26" s="92">
         <f t="shared" si="12"/>
         <v>43801</v>
       </c>
-      <c r="G26" s="103">
+      <c r="G26" s="101">
         <v>43802</v>
       </c>
-      <c r="H26" s="104">
+      <c r="H26" s="102">
         <v>1</v>
       </c>
       <c r="I26" s="40">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43802</v>
       </c>
-      <c r="J26" s="105">
+      <c r="J26" s="103">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I26-Milestones[[#This Row],[End Date]])</f>
         <v>0</v>
       </c>
-      <c r="K26" s="61" t="str">
+      <c r="K26" s="60" t="str">
         <f ca="1">IF(Today=Milestones[[#This Row],[Start Date]],"On Process",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process","Complete")))</f>
         <v>Complete</v>
       </c>
@@ -5892,35 +5886,35 @@
       <c r="BO26" s="11"/>
     </row>
     <row r="27" spans="2:67" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B27" s="60" t="s">
+      <c r="B27" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="102"/>
+      <c r="C27" s="100"/>
       <c r="D27" s="49" t="s">
         <v>49</v>
       </c>
       <c r="E27" s="44">
         <v>1</v>
       </c>
-      <c r="F27" s="94">
+      <c r="F27" s="92">
         <f t="shared" si="12"/>
         <v>43802</v>
       </c>
-      <c r="G27" s="103">
+      <c r="G27" s="101">
         <v>43803</v>
       </c>
-      <c r="H27" s="104">
+      <c r="H27" s="102">
         <v>1</v>
       </c>
       <c r="I27" s="40">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43803</v>
       </c>
-      <c r="J27" s="105">
+      <c r="J27" s="103">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I27-Milestones[[#This Row],[End Date]])</f>
         <v>0</v>
       </c>
-      <c r="K27" s="61" t="str">
+      <c r="K27" s="60" t="str">
         <f ca="1">IF(Today=Milestones[[#This Row],[Start Date]],"On Process",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process","Complete")))</f>
         <v>Complete</v>
       </c>
@@ -5982,35 +5976,35 @@
       <c r="BO27" s="11"/>
     </row>
     <row r="28" spans="2:67" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B28" s="60" t="s">
+      <c r="B28" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="102"/>
+      <c r="C28" s="100"/>
       <c r="D28" s="49" t="s">
         <v>49</v>
       </c>
       <c r="E28" s="44">
         <v>1</v>
       </c>
-      <c r="F28" s="94">
+      <c r="F28" s="92">
         <f t="shared" si="12"/>
         <v>43803</v>
       </c>
-      <c r="G28" s="103">
+      <c r="G28" s="101">
         <v>43804</v>
       </c>
-      <c r="H28" s="104">
+      <c r="H28" s="102">
         <v>1</v>
       </c>
       <c r="I28" s="40">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43804</v>
       </c>
-      <c r="J28" s="105">
+      <c r="J28" s="103">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I28-Milestones[[#This Row],[End Date]])</f>
         <v>0</v>
       </c>
-      <c r="K28" s="61" t="str">
+      <c r="K28" s="60" t="str">
         <f ca="1">IF(Today=Milestones[[#This Row],[Start Date]],"On Process",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process","Complete")))</f>
         <v>Complete</v>
       </c>
@@ -6072,35 +6066,35 @@
       <c r="BO28" s="11"/>
     </row>
     <row r="29" spans="2:67" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B29" s="90" t="s">
+      <c r="B29" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="102"/>
+      <c r="C29" s="100"/>
       <c r="D29" s="49" t="s">
         <v>49</v>
       </c>
       <c r="E29" s="44">
         <v>1</v>
       </c>
-      <c r="F29" s="94">
+      <c r="F29" s="92">
         <f t="shared" si="12"/>
         <v>43804</v>
       </c>
-      <c r="G29" s="103">
+      <c r="G29" s="101">
         <v>43805</v>
       </c>
-      <c r="H29" s="104">
+      <c r="H29" s="102">
         <v>1</v>
       </c>
       <c r="I29" s="40">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43805</v>
       </c>
-      <c r="J29" s="105">
+      <c r="J29" s="103">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I29-Milestones[[#This Row],[End Date]])</f>
         <v>0</v>
       </c>
-      <c r="K29" s="61" t="str">
+      <c r="K29" s="60" t="str">
         <f ca="1">IF(Today=Milestones[[#This Row],[Start Date]],"On Process",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process","Complete")))</f>
         <v>Complete</v>
       </c>
@@ -6162,27 +6156,27 @@
       <c r="BO29" s="11"/>
     </row>
     <row r="30" spans="2:67" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B30" s="91" t="s">
+      <c r="B30" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="82"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="64">
+      <c r="C30" s="81"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="63">
         <f t="shared" si="12"/>
         <v>43805</v>
       </c>
-      <c r="G30" s="64">
+      <c r="G30" s="63">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43815</v>
       </c>
-      <c r="H30" s="96">
+      <c r="H30" s="94">
         <f>H31</f>
         <v>10</v>
       </c>
-      <c r="I30" s="83"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="76"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="75"/>
       <c r="L30" s="38"/>
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
@@ -6251,7 +6245,7 @@
         <v>49</v>
       </c>
       <c r="E31" s="48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="43">
         <f>F30</f>
@@ -6264,14 +6258,17 @@
       <c r="H31" s="42">
         <v>10</v>
       </c>
-      <c r="I31" s="58"/>
+      <c r="I31" s="43">
+        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
+        <v>43815</v>
+      </c>
       <c r="J31" s="50">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I31-Milestones[[#This Row],[End Date]])</f>
-        <v>28</v>
-      </c>
-      <c r="K31" s="61" t="str">
+        <v>0</v>
+      </c>
+      <c r="K31" s="60" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I31-G31&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>On Process</v>
+        <v>Complete</v>
       </c>
       <c r="L31" s="38"/>
       <c r="M31" s="11"/>
@@ -6331,27 +6328,27 @@
       <c r="BO31" s="11"/>
     </row>
     <row r="32" spans="2:67" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="70"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="63">
+      <c r="C32" s="69"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="62">
         <f>G31</f>
         <v>43815</v>
       </c>
-      <c r="G32" s="63">
+      <c r="G32" s="62">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43830</v>
       </c>
-      <c r="H32" s="73">
+      <c r="H32" s="72">
         <f>H33</f>
         <v>15</v>
       </c>
-      <c r="I32" s="79"/>
-      <c r="J32" s="80"/>
-      <c r="K32" s="76"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="75"/>
       <c r="L32" s="38"/>
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
@@ -6410,7 +6407,7 @@
       <c r="BO32" s="11"/>
     </row>
     <row r="33" spans="2:67" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B33" s="60" t="s">
+      <c r="B33" s="59" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="39" t="s">
@@ -6420,7 +6417,7 @@
         <v>49</v>
       </c>
       <c r="E33" s="48">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F33" s="41">
         <f>F32</f>
@@ -6433,12 +6430,12 @@
       <c r="H33" s="42">
         <v>15</v>
       </c>
-      <c r="I33" s="57"/>
+      <c r="I33" s="41"/>
       <c r="J33" s="50">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I33-Milestones[[#This Row],[End Date]])</f>
-        <v>13</v>
-      </c>
-      <c r="K33" s="61" t="str">
+        <v>22</v>
+      </c>
+      <c r="K33" s="60" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I33-G33&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>On Process</v>
       </c>
@@ -6500,27 +6497,27 @@
       <c r="BO33" s="11"/>
     </row>
     <row r="34" spans="2:67" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B34" s="62" t="s">
+      <c r="B34" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="63">
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="62">
         <f>G33</f>
         <v>43830</v>
       </c>
-      <c r="G34" s="68">
+      <c r="G34" s="67">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43840</v>
       </c>
-      <c r="H34" s="73">
+      <c r="H34" s="72">
         <f>H35</f>
         <v>10</v>
       </c>
-      <c r="I34" s="69"/>
-      <c r="J34" s="81"/>
-      <c r="K34" s="76"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="75"/>
       <c r="L34" s="38"/>
       <c r="M34" s="11"/>
       <c r="N34" s="11"/>
@@ -6579,7 +6576,7 @@
       <c r="BO34" s="11"/>
     </row>
     <row r="35" spans="2:67" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B35" s="60" t="s">
+      <c r="B35" s="59" t="s">
         <v>45</v>
       </c>
       <c r="C35" s="45" t="s">
@@ -6589,7 +6586,7 @@
         <v>49</v>
       </c>
       <c r="E35" s="48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" s="40">
         <f>F34</f>
@@ -6602,14 +6599,17 @@
       <c r="H35" s="42">
         <v>10</v>
       </c>
-      <c r="I35" s="57"/>
+      <c r="I35" s="40">
+        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
+        <v>43840</v>
+      </c>
       <c r="J35" s="50">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I35-Milestones[[#This Row],[End Date]])</f>
-        <v>3</v>
-      </c>
-      <c r="K35" s="61" t="str">
+        <v>0</v>
+      </c>
+      <c r="K35" s="60" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I33-G33&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>On Process</v>
+        <v>Complete</v>
       </c>
       <c r="L35" s="38"/>
       <c r="M35" s="11"/>
@@ -6669,27 +6669,27 @@
       <c r="BO35" s="11"/>
     </row>
     <row r="36" spans="2:67" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B36" s="62" t="s">
+      <c r="B36" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="63">
+      <c r="C36" s="70"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="62">
         <f>G35</f>
         <v>43840</v>
       </c>
-      <c r="G36" s="68">
+      <c r="G36" s="67">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43850</v>
       </c>
-      <c r="H36" s="73">
+      <c r="H36" s="72">
         <f>H37</f>
         <v>10</v>
       </c>
-      <c r="I36" s="69"/>
-      <c r="J36" s="81"/>
-      <c r="K36" s="76"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="75"/>
       <c r="L36" s="38"/>
       <c r="M36" s="11"/>
       <c r="N36" s="11"/>
@@ -6748,7 +6748,7 @@
       <c r="BO36" s="11"/>
     </row>
     <row r="37" spans="2:67" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B37" s="60" t="s">
+      <c r="B37" s="59" t="s">
         <v>46</v>
       </c>
       <c r="C37" s="45" t="s">
@@ -6778,7 +6778,7 @@
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I37-Milestones[[#This Row],[End Date]])</f>
         <v>-7</v>
       </c>
-      <c r="K37" s="61" t="str">
+      <c r="K37" s="60" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I37-G37&gt;0,"Delay","Complete"))),"Complete")</f>
         <v>Complete</v>
       </c>
@@ -6840,29 +6840,29 @@
       <c r="BO37" s="11"/>
     </row>
     <row r="38" spans="2:67" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B38" s="65" t="s">
+      <c r="B38" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="82" t="s">
+      <c r="C38" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="71"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="66">
+      <c r="D38" s="70"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="65">
         <f>G37</f>
         <v>43850</v>
       </c>
-      <c r="G38" s="66">
+      <c r="G38" s="65">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43860</v>
       </c>
-      <c r="H38" s="73">
+      <c r="H38" s="72">
         <f>H39</f>
         <v>10</v>
       </c>
-      <c r="I38" s="83"/>
-      <c r="J38" s="81"/>
-      <c r="K38" s="76"/>
+      <c r="I38" s="82"/>
+      <c r="J38" s="80"/>
+      <c r="K38" s="75"/>
       <c r="L38" s="38"/>
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
@@ -6921,37 +6921,40 @@
       <c r="BO38" s="11"/>
     </row>
     <row r="39" spans="2:67" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B39" s="85" t="s">
+      <c r="B39" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="87" t="s">
+      <c r="C39" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="87" t="s">
+      <c r="D39" s="86" t="s">
         <v>49</v>
       </c>
       <c r="E39" s="48">
-        <v>0</v>
-      </c>
-      <c r="F39" s="86">
+        <v>1</v>
+      </c>
+      <c r="F39" s="85">
         <f>F38</f>
         <v>43850</v>
       </c>
-      <c r="G39" s="86">
+      <c r="G39" s="85">
         <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
         <v>43860</v>
       </c>
-      <c r="H39" s="88">
+      <c r="H39" s="87">
         <v>10</v>
       </c>
-      <c r="I39" s="89"/>
+      <c r="I39" s="85">
+        <f>Milestones[[#This Row],[Start Date]]+Milestones[[#This Row],[Durations]]</f>
+        <v>43860</v>
+      </c>
       <c r="J39" s="50">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",TODAY()-Milestones[[#This Row],[End Date]],I39-Milestones[[#This Row],[End Date]])</f>
-        <v>-17</v>
-      </c>
-      <c r="K39" s="61" t="str">
+        <v>0</v>
+      </c>
+      <c r="K39" s="60" t="str">
         <f ca="1">IF(Milestones[[#This Row],[Complete Date]]="",IF(TODAY()&lt;Milestones[[#This Row],[Start Date]],"Pending",IF(Milestones[[#This Row],[Complete Date]]="","On Process",IF(I39-G39&gt;0,"Delay","Complete"))),"Complete")</f>
-        <v>Pending</v>
+        <v>Complete</v>
       </c>
       <c r="L39" s="38"/>
       <c r="M39" s="11"/>
